--- a/Code/Results/Cases/Case_0_144/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_144/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2841456796158326</v>
+        <v>0.407659666031762</v>
       </c>
       <c r="D2">
-        <v>0.06585677111502264</v>
+        <v>0.07827072628154497</v>
       </c>
       <c r="E2">
-        <v>0.09274015324970719</v>
+        <v>0.1661824641145877</v>
       </c>
       <c r="F2">
-        <v>1.630982690385935</v>
+        <v>3.274082719437061</v>
       </c>
       <c r="G2">
-        <v>1.312827995321697</v>
+        <v>2.496510451164198</v>
       </c>
       <c r="H2">
-        <v>0.8562388907666332</v>
+        <v>2.028515294435053</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1418438147477019</v>
+        <v>0.2942613973588806</v>
       </c>
       <c r="K2">
-        <v>5.034833142645653</v>
+        <v>3.064902913897015</v>
       </c>
       <c r="L2">
-        <v>0.06292850199044864</v>
+        <v>0.1414011845608627</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2587192202789765</v>
+        <v>0.4035373449661677</v>
       </c>
       <c r="D3">
-        <v>0.05808120682386431</v>
+        <v>0.07606039375010454</v>
       </c>
       <c r="E3">
-        <v>0.08583340716973353</v>
+        <v>0.1652646092055043</v>
       </c>
       <c r="F3">
-        <v>1.572624245473975</v>
+        <v>3.290820897605414</v>
       </c>
       <c r="G3">
-        <v>1.265131152613137</v>
+        <v>2.511805904961022</v>
       </c>
       <c r="H3">
-        <v>0.8473157385375032</v>
+        <v>2.044522168889657</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.135247786780063</v>
+        <v>0.2947477689750073</v>
       </c>
       <c r="K3">
-        <v>4.380215489268721</v>
+        <v>2.887435195137641</v>
       </c>
       <c r="L3">
-        <v>0.05941383844244186</v>
+        <v>0.1410852209426992</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2435120234809744</v>
+        <v>0.4011933038084692</v>
       </c>
       <c r="D4">
-        <v>0.05333323789547961</v>
+        <v>0.07471290893964522</v>
       </c>
       <c r="E4">
-        <v>0.08170738554982648</v>
+        <v>0.164763423194902</v>
       </c>
       <c r="F4">
-        <v>1.541302150186766</v>
+        <v>3.303112341928653</v>
       </c>
       <c r="G4">
-        <v>1.240140750403938</v>
+        <v>2.522959509219092</v>
       </c>
       <c r="H4">
-        <v>0.844163463488897</v>
+        <v>2.055478320048593</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1314708260012551</v>
+        <v>0.2951852519320326</v>
       </c>
       <c r="K4">
-        <v>3.98193235904364</v>
+        <v>2.779385359023081</v>
       </c>
       <c r="L4">
-        <v>0.05731710143290769</v>
+        <v>0.1409315076271191</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2374079380669514</v>
+        <v>0.4002851344639424</v>
       </c>
       <c r="D5">
-        <v>0.05140378156804104</v>
+        <v>0.07416627531706865</v>
       </c>
       <c r="E5">
-        <v>0.08005262155765536</v>
+        <v>0.1645748916522969</v>
       </c>
       <c r="F5">
-        <v>1.529595774521979</v>
+        <v>3.308626625041924</v>
       </c>
       <c r="G5">
-        <v>1.230960918251824</v>
+        <v>2.527946480635791</v>
       </c>
       <c r="H5">
-        <v>0.8434289572644502</v>
+        <v>2.060226220693067</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1299957404261036</v>
+        <v>0.2953984229367563</v>
       </c>
       <c r="K5">
-        <v>3.82040538457386</v>
+        <v>2.735585677382744</v>
       </c>
       <c r="L5">
-        <v>0.05647707376876454</v>
+        <v>0.14087902445225</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.236399729906509</v>
+        <v>0.4001371752891743</v>
       </c>
       <c r="D6">
-        <v>0.05108368812077657</v>
+        <v>0.07407565823096007</v>
       </c>
       <c r="E6">
-        <v>0.07977939531320288</v>
+        <v>0.1645445353231061</v>
       </c>
       <c r="F6">
-        <v>1.527713691009467</v>
+        <v>3.309572763038034</v>
       </c>
       <c r="G6">
-        <v>1.229495131864837</v>
+        <v>2.528801207880477</v>
       </c>
       <c r="H6">
-        <v>0.8433392441342846</v>
+        <v>2.061031696809465</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1297545447349506</v>
+        <v>0.2954359266709332</v>
       </c>
       <c r="K6">
-        <v>3.793626920634381</v>
+        <v>2.728326791259008</v>
       </c>
       <c r="L6">
-        <v>0.05633843041532316</v>
+        <v>0.1408709238210548</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2434293363615438</v>
+        <v>0.4011808654214093</v>
       </c>
       <c r="D7">
-        <v>0.05330719632568304</v>
+        <v>0.07470552675317776</v>
       </c>
       <c r="E7">
-        <v>0.08168496384903889</v>
+        <v>0.1647608169733132</v>
       </c>
       <c r="F7">
-        <v>1.541140088479452</v>
+        <v>3.303184664468588</v>
       </c>
       <c r="G7">
-        <v>1.240012979494239</v>
+        <v>2.523024978241764</v>
       </c>
       <c r="H7">
-        <v>0.844151374727403</v>
+        <v>2.055541205901221</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1314506789366234</v>
+        <v>0.2951879855776482</v>
       </c>
       <c r="K7">
-        <v>3.979750984872624</v>
+        <v>2.778793722279659</v>
       </c>
       <c r="L7">
-        <v>0.0573057154446559</v>
+        <v>0.1409307586648367</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2752891036114988</v>
+        <v>0.406199460308784</v>
       </c>
       <c r="D8">
-        <v>0.0631695315319476</v>
+        <v>0.07750662359401161</v>
       </c>
       <c r="E8">
-        <v>0.09033349030850957</v>
+        <v>0.1658530516347305</v>
       </c>
       <c r="F8">
-        <v>1.609876670257336</v>
+        <v>3.279435371009342</v>
       </c>
       <c r="G8">
-        <v>1.29544280536679</v>
+        <v>2.501417796699585</v>
       </c>
       <c r="H8">
-        <v>0.8526573970066096</v>
+        <v>2.03380011539997</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1395099533473285</v>
+        <v>0.2944002664572096</v>
       </c>
       <c r="K8">
-        <v>4.808272783576854</v>
+        <v>3.003522528864039</v>
       </c>
       <c r="L8">
-        <v>0.06170329860569979</v>
+        <v>0.1412838927914812</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3414160742662489</v>
+        <v>0.4175262608761159</v>
       </c>
       <c r="D9">
-        <v>0.08278035959477137</v>
+        <v>0.08307459898016845</v>
       </c>
       <c r="E9">
-        <v>0.1083149962276764</v>
+        <v>0.1684893200073532</v>
       </c>
       <c r="F9">
-        <v>1.784243515264919</v>
+        <v>3.248894248446987</v>
       </c>
       <c r="G9">
-        <v>1.441998291472288</v>
+        <v>2.473089046239807</v>
       </c>
       <c r="H9">
-        <v>0.8895292200145093</v>
+        <v>2.000135124508972</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1577089826122631</v>
+        <v>0.2939585402621887</v>
       </c>
       <c r="K9">
-        <v>6.469157357824656</v>
+        <v>3.451460558087604</v>
       </c>
       <c r="L9">
-        <v>0.07086324502749619</v>
+        <v>0.1422951220951134</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3929054221525803</v>
+        <v>0.4267564920802158</v>
       </c>
       <c r="D10">
-        <v>0.09745254536649384</v>
+        <v>0.0872093887237213</v>
       </c>
       <c r="E10">
-        <v>0.1223219066704679</v>
+        <v>0.170727279867755</v>
       </c>
       <c r="F10">
-        <v>1.94233650413841</v>
+        <v>3.236301478813544</v>
       </c>
       <c r="G10">
-        <v>1.578590589497878</v>
+        <v>2.460924048215162</v>
       </c>
       <c r="H10">
-        <v>0.9316072953862147</v>
+        <v>1.980898190797575</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1728941906545245</v>
+        <v>0.2943086539463664</v>
       </c>
       <c r="K10">
-        <v>7.722651034034698</v>
+        <v>3.784987709501877</v>
       </c>
       <c r="L10">
-        <v>0.0779980600886816</v>
+        <v>0.143231342206839</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4171332907831982</v>
+        <v>0.4311535928612784</v>
       </c>
       <c r="D11">
-        <v>0.1042101891111571</v>
+        <v>0.08909964700485773</v>
       </c>
       <c r="E11">
-        <v>0.1289108422333882</v>
+        <v>0.1718107440200853</v>
       </c>
       <c r="F11">
-        <v>2.022261851939007</v>
+        <v>3.232726717491431</v>
       </c>
       <c r="G11">
-        <v>1.64849888154572</v>
+        <v>2.457286840913497</v>
       </c>
       <c r="H11">
-        <v>0.954688288308887</v>
+        <v>1.973346765921491</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1802867591635362</v>
+        <v>0.2946149543851107</v>
       </c>
       <c r="K11">
-        <v>8.302979176250915</v>
+        <v>3.937684983432291</v>
       </c>
       <c r="L11">
-        <v>0.08135170105656897</v>
+        <v>0.1436990230309405</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4264399240057912</v>
+        <v>0.4328472017654974</v>
       </c>
       <c r="D12">
-        <v>0.1067835170754847</v>
+        <v>0.08981674443525378</v>
       </c>
       <c r="E12">
-        <v>0.1314412894912032</v>
+        <v>0.1722304201524487</v>
       </c>
       <c r="F12">
-        <v>2.053821812023202</v>
+        <v>3.231684035136666</v>
       </c>
       <c r="G12">
-        <v>1.676231479171406</v>
+        <v>2.456183806598659</v>
       </c>
       <c r="H12">
-        <v>0.9640604938312833</v>
+        <v>1.970660260118109</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1831644708126063</v>
+        <v>0.2947521234857007</v>
       </c>
       <c r="K12">
-        <v>8.524459067531382</v>
+        <v>3.995647298733729</v>
       </c>
       <c r="L12">
-        <v>0.08263904581635018</v>
+        <v>0.1438821113505071</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4244294195834755</v>
+        <v>0.4324811839327367</v>
       </c>
       <c r="D13">
-        <v>0.1062286250549249</v>
+        <v>0.08966224762863817</v>
       </c>
       <c r="E13">
-        <v>0.1308946684089634</v>
+        <v>0.1721396178909487</v>
       </c>
       <c r="F13">
-        <v>2.046964800861687</v>
+        <v>3.231894742769754</v>
       </c>
       <c r="G13">
-        <v>1.670200277839911</v>
+        <v>2.456409140491871</v>
       </c>
       <c r="H13">
-        <v>0.9620127851414395</v>
+        <v>1.971231141546212</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1825410728535175</v>
+        <v>0.2947216390922804</v>
       </c>
       <c r="K13">
-        <v>8.476678174401115</v>
+        <v>3.983157900968706</v>
       </c>
       <c r="L13">
-        <v>0.08236098732515273</v>
+        <v>0.1438424140364702</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4178962059096705</v>
+        <v>0.4312923553434587</v>
       </c>
       <c r="D14">
-        <v>0.1044215958710311</v>
+        <v>0.08915861727591334</v>
       </c>
       <c r="E14">
-        <v>0.129118289473098</v>
+        <v>0.1718450828765512</v>
       </c>
       <c r="F14">
-        <v>2.024831496515503</v>
+        <v>3.232634694978501</v>
       </c>
       <c r="G14">
-        <v>1.650754331043885</v>
+        <v>2.457190587363016</v>
       </c>
       <c r="H14">
-        <v>0.9554462760370654</v>
+        <v>1.973122273961167</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1805218877416763</v>
+        <v>0.29462581468092</v>
       </c>
       <c r="K14">
-        <v>8.321164285581688</v>
+        <v>3.942450793705916</v>
       </c>
       <c r="L14">
-        <v>0.08145725158452422</v>
+        <v>0.1437139659352837</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4139121399592796</v>
+        <v>0.4305678785328837</v>
       </c>
       <c r="D15">
-        <v>0.1033166839163044</v>
+        <v>0.08885029688624968</v>
       </c>
       <c r="E15">
-        <v>0.1280349424433034</v>
+        <v>0.1716658943793412</v>
       </c>
       <c r="F15">
-        <v>2.011447250512234</v>
+        <v>3.233128477382195</v>
       </c>
       <c r="G15">
-        <v>1.639011722846277</v>
+        <v>2.457705013980103</v>
       </c>
       <c r="H15">
-        <v>0.9515084788434081</v>
+        <v>1.974303200773079</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1792955499537854</v>
+        <v>0.2945698788044666</v>
       </c>
       <c r="K15">
-        <v>8.226140366982918</v>
+        <v>3.917534613797102</v>
       </c>
       <c r="L15">
-        <v>0.08090601179211632</v>
+        <v>0.1436360669149224</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3913396233618869</v>
+        <v>0.426473121431826</v>
       </c>
       <c r="D16">
-        <v>0.09701278921453138</v>
+        <v>0.08708603978739404</v>
       </c>
       <c r="E16">
-        <v>0.1218960158607238</v>
+        <v>0.1706577878889881</v>
       </c>
       <c r="F16">
-        <v>1.937286116624676</v>
+        <v>3.236578547316</v>
       </c>
       <c r="G16">
-        <v>1.574190071310255</v>
+        <v>2.461200047397938</v>
       </c>
       <c r="H16">
-        <v>0.9301835815826394</v>
+        <v>1.981415880025793</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1724215345082456</v>
+        <v>0.294291598266966</v>
       </c>
       <c r="K16">
-        <v>7.684950847580012</v>
+        <v>3.775028106118555</v>
       </c>
       <c r="L16">
-        <v>0.07778121906432744</v>
+        <v>0.1432016172242641</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3777093143644095</v>
+        <v>0.4240119021166038</v>
       </c>
       <c r="D17">
-        <v>0.09316847139550077</v>
+        <v>0.08600608185337677</v>
       </c>
       <c r="E17">
-        <v>0.1181883855183408</v>
+        <v>0.1700560891986349</v>
       </c>
       <c r="F17">
-        <v>1.89393767779714</v>
+        <v>3.239247598830872</v>
       </c>
       <c r="G17">
-        <v>1.536510456733595</v>
+        <v>2.463831031530646</v>
       </c>
       <c r="H17">
-        <v>0.9181545128998891</v>
+        <v>1.986086909542081</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.168334497212598</v>
+        <v>0.2941585663697595</v>
       </c>
       <c r="K17">
-        <v>7.355718516028617</v>
+        <v>3.687853804836607</v>
       </c>
       <c r="L17">
-        <v>0.075893174920175</v>
+        <v>0.1429457842233006</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3699442181368227</v>
+        <v>0.4226149302358237</v>
       </c>
       <c r="D18">
-        <v>0.09096499207704767</v>
+        <v>0.08538579849417971</v>
       </c>
       <c r="E18">
-        <v>0.1160760159111192</v>
+        <v>0.1697161650008461</v>
       </c>
       <c r="F18">
-        <v>1.869749068555521</v>
+        <v>3.240985409961937</v>
       </c>
       <c r="G18">
-        <v>1.5155601695337</v>
+        <v>2.46552273805554</v>
       </c>
       <c r="H18">
-        <v>0.9116021473452633</v>
+        <v>1.988886435896546</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1660287942749221</v>
+        <v>0.2940958870211858</v>
       </c>
       <c r="K18">
-        <v>7.16728624669156</v>
+        <v>3.637805188773712</v>
       </c>
       <c r="L18">
-        <v>0.07481726107419462</v>
+        <v>0.1428025705376825</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3673274540207956</v>
+        <v>0.4221451433007246</v>
       </c>
       <c r="D19">
-        <v>0.09022018118059094</v>
+        <v>0.08517593365213116</v>
       </c>
       <c r="E19">
-        <v>0.115364148398811</v>
+        <v>0.1696021303961821</v>
       </c>
       <c r="F19">
-        <v>1.861682989280553</v>
+        <v>3.241608567841268</v>
       </c>
       <c r="G19">
-        <v>1.508586717162842</v>
+        <v>2.466126119888855</v>
       </c>
       <c r="H19">
-        <v>0.9094447001867536</v>
+        <v>1.989853676587728</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1652556155629838</v>
+        <v>0.294077040299932</v>
       </c>
       <c r="K19">
-        <v>7.103638976840443</v>
+        <v>3.620875371812303</v>
       </c>
       <c r="L19">
-        <v>0.0744546460770863</v>
+        <v>0.1427547572966716</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3791524413231855</v>
+        <v>0.4242719721270589</v>
       </c>
       <c r="D20">
-        <v>0.09357689533042901</v>
+        <v>0.08612095446765267</v>
       </c>
       <c r="E20">
-        <v>0.1185809540673475</v>
+        <v>0.1701195039276229</v>
       </c>
       <c r="F20">
-        <v>1.898474188014561</v>
+        <v>3.238942491653873</v>
       </c>
       <c r="G20">
-        <v>1.540445813555579</v>
+        <v>2.46353248037866</v>
       </c>
       <c r="H20">
-        <v>0.9193966545715853</v>
+        <v>1.985577984479818</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1687648475543142</v>
+        <v>0.2941712954965467</v>
       </c>
       <c r="K20">
-        <v>7.390667407252408</v>
+        <v>3.697124170430072</v>
       </c>
       <c r="L20">
-        <v>0.07609310860846819</v>
+        <v>0.142972611015189</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4198114451978938</v>
+        <v>0.4316407688736774</v>
       </c>
       <c r="D21">
-        <v>0.1049519539802475</v>
+        <v>0.08930651083640839</v>
       </c>
       <c r="E21">
-        <v>0.1296390598648323</v>
+        <v>0.1719313401623808</v>
       </c>
       <c r="F21">
-        <v>2.031296243000156</v>
+        <v>3.232408902183451</v>
       </c>
       <c r="G21">
-        <v>1.656430662201018</v>
+        <v>2.456953600700587</v>
       </c>
       <c r="H21">
-        <v>0.9573573057256226</v>
+        <v>1.972562101367657</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1811127722289214</v>
+        <v>0.2946533855216558</v>
       </c>
       <c r="K21">
-        <v>8.366793435573925</v>
+        <v>3.954403687625359</v>
       </c>
       <c r="L21">
-        <v>0.08172221260898738</v>
+        <v>0.1437515319197544</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4471632821868639</v>
+        <v>0.436622963488702</v>
       </c>
       <c r="D22">
-        <v>0.1124712214650856</v>
+        <v>0.09139600075361898</v>
       </c>
       <c r="E22">
-        <v>0.1370745771927311</v>
+        <v>0.1731702167214806</v>
       </c>
       <c r="F22">
-        <v>2.125724841439308</v>
+        <v>3.2299521924933</v>
       </c>
       <c r="G22">
-        <v>1.739656295277513</v>
+        <v>2.454253464694744</v>
       </c>
       <c r="H22">
-        <v>0.9858867694459263</v>
+        <v>1.965064430546562</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1896440860503787</v>
+        <v>0.2950919290327647</v>
       </c>
       <c r="K22">
-        <v>9.014936426485235</v>
+        <v>4.123361555589668</v>
       </c>
       <c r="L22">
-        <v>0.08550357814964116</v>
+        <v>0.1442954932856182</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4324879122753202</v>
+        <v>0.4339486529541148</v>
       </c>
       <c r="D23">
-        <v>0.1084493966288278</v>
+        <v>0.0902801241395963</v>
       </c>
       <c r="E23">
-        <v>0.1330855295558635</v>
+        <v>0.1725040007583907</v>
       </c>
       <c r="F23">
-        <v>2.074577282007041</v>
+        <v>3.231097030100088</v>
       </c>
       <c r="G23">
-        <v>1.694506189001544</v>
+        <v>2.455547704015032</v>
       </c>
       <c r="H23">
-        <v>0.9702958300961768</v>
+        <v>1.968973571615976</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1850454285564922</v>
+        <v>0.2948465601618864</v>
       </c>
       <c r="K23">
-        <v>8.66798030443033</v>
+        <v>4.033111650316869</v>
       </c>
       <c r="L23">
-        <v>0.0834753427882049</v>
+        <v>0.1440019852696253</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3784997832148065</v>
+        <v>0.424154338361717</v>
       </c>
       <c r="D24">
-        <v>0.09339222626995536</v>
+        <v>0.08606901869100625</v>
       </c>
       <c r="E24">
-        <v>0.1184034143399408</v>
+        <v>0.1700908154377636</v>
       </c>
       <c r="F24">
-        <v>1.896420959197783</v>
+        <v>3.239079797321224</v>
       </c>
       <c r="G24">
-        <v>1.538664430840839</v>
+        <v>2.463666897529663</v>
       </c>
       <c r="H24">
-        <v>0.9188339555466598</v>
+        <v>1.985807714156465</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1685701497844718</v>
+        <v>0.2941654976685939</v>
       </c>
       <c r="K24">
-        <v>7.374864392757388</v>
+        <v>3.692932822995147</v>
       </c>
       <c r="L24">
-        <v>0.07600268898659124</v>
+        <v>0.1429604705723335</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3230702396076879</v>
+        <v>0.4143027519042448</v>
       </c>
       <c r="D25">
-        <v>0.07743658087738226</v>
+        <v>0.08156046636364067</v>
       </c>
       <c r="E25">
-        <v>0.1033243717993244</v>
+        <v>0.1677232454164503</v>
       </c>
       <c r="F25">
-        <v>1.732268622213596</v>
+        <v>3.255432702950287</v>
       </c>
       <c r="G25">
-        <v>1.397733164463943</v>
+        <v>2.479240356657954</v>
       </c>
       <c r="H25">
-        <v>0.8771335956517703</v>
+        <v>2.008279217264629</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1524949826616933</v>
+        <v>0.2939597289602034</v>
       </c>
       <c r="K25">
-        <v>6.01489025559539</v>
+        <v>3.32950499940506</v>
       </c>
       <c r="L25">
-        <v>0.06832026325889373</v>
+        <v>0.1419875444682361</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_144/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_144/res_line/pl_mw.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.407659666031762</v>
+        <v>0.284145679615861</v>
       </c>
       <c r="D2">
-        <v>0.07827072628154497</v>
+        <v>0.06585677111505106</v>
       </c>
       <c r="E2">
-        <v>0.1661824641145877</v>
+        <v>0.09274015324968943</v>
       </c>
       <c r="F2">
-        <v>3.274082719437061</v>
+        <v>1.630982690385935</v>
       </c>
       <c r="G2">
-        <v>2.496510451164198</v>
+        <v>1.312827995321669</v>
       </c>
       <c r="H2">
-        <v>2.028515294435053</v>
+        <v>0.8562388907666332</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2942613973588806</v>
+        <v>0.1418438147477659</v>
       </c>
       <c r="K2">
-        <v>3.064902913897015</v>
+        <v>5.034833142645653</v>
       </c>
       <c r="L2">
-        <v>0.1414011845608627</v>
+        <v>0.06292850199044864</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4035373449661677</v>
+        <v>0.2587192202791186</v>
       </c>
       <c r="D3">
-        <v>0.07606039375010454</v>
+        <v>0.0580812068238572</v>
       </c>
       <c r="E3">
-        <v>0.1652646092055043</v>
+        <v>0.08583340716974064</v>
       </c>
       <c r="F3">
-        <v>3.290820897605414</v>
+        <v>1.572624245474003</v>
       </c>
       <c r="G3">
-        <v>2.511805904961022</v>
+        <v>1.265131152613108</v>
       </c>
       <c r="H3">
-        <v>2.044522168889657</v>
+        <v>0.8473157385375174</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2947477689750073</v>
+        <v>0.1352477867801056</v>
       </c>
       <c r="K3">
-        <v>2.887435195137641</v>
+        <v>4.380215489268778</v>
       </c>
       <c r="L3">
-        <v>0.1410852209426992</v>
+        <v>0.0594138384424312</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.4011933038084692</v>
+        <v>0.243512023480946</v>
       </c>
       <c r="D4">
-        <v>0.07471290893964522</v>
+        <v>0.05333323789551514</v>
       </c>
       <c r="E4">
-        <v>0.164763423194902</v>
+        <v>0.08170738554980161</v>
       </c>
       <c r="F4">
-        <v>3.303112341928653</v>
+        <v>1.541302150186823</v>
       </c>
       <c r="G4">
-        <v>2.522959509219092</v>
+        <v>1.240140750403967</v>
       </c>
       <c r="H4">
-        <v>2.055478320048593</v>
+        <v>0.8441634634890249</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2951852519320326</v>
+        <v>0.1314708260013404</v>
       </c>
       <c r="K4">
-        <v>2.779385359023081</v>
+        <v>3.981932359043583</v>
       </c>
       <c r="L4">
-        <v>0.1409315076271191</v>
+        <v>0.05731710143290414</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.4002851344639424</v>
+        <v>0.2374079380668093</v>
       </c>
       <c r="D5">
-        <v>0.07416627531706865</v>
+        <v>0.0514037815681192</v>
       </c>
       <c r="E5">
-        <v>0.1645748916522969</v>
+        <v>0.0800526215576518</v>
       </c>
       <c r="F5">
-        <v>3.308626625041924</v>
+        <v>1.529595774521979</v>
       </c>
       <c r="G5">
-        <v>2.527946480635791</v>
+        <v>1.230960918251782</v>
       </c>
       <c r="H5">
-        <v>2.060226220693067</v>
+        <v>0.8434289572645781</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2953984229367563</v>
+        <v>0.1299957404260965</v>
       </c>
       <c r="K5">
-        <v>2.735585677382744</v>
+        <v>3.820405384573803</v>
       </c>
       <c r="L5">
-        <v>0.14087902445225</v>
+        <v>0.05647707376881428</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.4001371752891743</v>
+        <v>0.2363997299063527</v>
       </c>
       <c r="D6">
-        <v>0.07407565823096007</v>
+        <v>0.05108368812076947</v>
       </c>
       <c r="E6">
-        <v>0.1645445353231061</v>
+        <v>0.07977939531318867</v>
       </c>
       <c r="F6">
-        <v>3.309572763038034</v>
+        <v>1.527713691009438</v>
       </c>
       <c r="G6">
-        <v>2.528801207880477</v>
+        <v>1.229495131864823</v>
       </c>
       <c r="H6">
-        <v>2.061031696809465</v>
+        <v>0.8433392441343841</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2954359266709332</v>
+        <v>0.1297545447349506</v>
       </c>
       <c r="K6">
-        <v>2.728326791259008</v>
+        <v>3.793626920634267</v>
       </c>
       <c r="L6">
-        <v>0.1408709238210548</v>
+        <v>0.05633843041523079</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.4011808654214093</v>
+        <v>0.2434293363617996</v>
       </c>
       <c r="D7">
-        <v>0.07470552675317776</v>
+        <v>0.05330719632556224</v>
       </c>
       <c r="E7">
-        <v>0.1647608169733132</v>
+        <v>0.08168496384901758</v>
       </c>
       <c r="F7">
-        <v>3.303184664468588</v>
+        <v>1.541140088479409</v>
       </c>
       <c r="G7">
-        <v>2.523024978241764</v>
+        <v>1.240012979494225</v>
       </c>
       <c r="H7">
-        <v>2.055541205901221</v>
+        <v>0.8441513747272751</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2951879855776482</v>
+        <v>0.1314506789367442</v>
       </c>
       <c r="K7">
-        <v>2.778793722279659</v>
+        <v>3.97975098487268</v>
       </c>
       <c r="L7">
-        <v>0.1409307586648367</v>
+        <v>0.05730571544468432</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.406199460308784</v>
+        <v>0.2752891036116267</v>
       </c>
       <c r="D8">
-        <v>0.07750662359401161</v>
+        <v>0.06316953153198313</v>
       </c>
       <c r="E8">
-        <v>0.1658530516347305</v>
+        <v>0.09033349030852023</v>
       </c>
       <c r="F8">
-        <v>3.279435371009342</v>
+        <v>1.60987667025735</v>
       </c>
       <c r="G8">
-        <v>2.501417796699585</v>
+        <v>1.295442805366704</v>
       </c>
       <c r="H8">
-        <v>2.03380011539997</v>
+        <v>0.8526573970067517</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2944002664572096</v>
+        <v>0.1395099533473143</v>
       </c>
       <c r="K8">
-        <v>3.003522528864039</v>
+        <v>4.808272783576797</v>
       </c>
       <c r="L8">
-        <v>0.1412838927914812</v>
+        <v>0.06170329860576729</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4175262608761159</v>
+        <v>0.341416074266391</v>
       </c>
       <c r="D9">
-        <v>0.08307459898016845</v>
+        <v>0.08278035959499164</v>
       </c>
       <c r="E9">
-        <v>0.1684893200073532</v>
+        <v>0.1083149962276977</v>
       </c>
       <c r="F9">
-        <v>3.248894248446987</v>
+        <v>1.784243515264933</v>
       </c>
       <c r="G9">
-        <v>2.473089046239807</v>
+        <v>1.441998291472316</v>
       </c>
       <c r="H9">
-        <v>2.000135124508972</v>
+        <v>0.8895292200145946</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2939585402621887</v>
+        <v>0.1577089826122702</v>
       </c>
       <c r="K9">
-        <v>3.451460558087604</v>
+        <v>6.469157357824656</v>
       </c>
       <c r="L9">
-        <v>0.1422951220951134</v>
+        <v>0.07086324502744645</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4267564920802158</v>
+        <v>0.3929054221528077</v>
       </c>
       <c r="D10">
-        <v>0.0872093887237213</v>
+        <v>0.09745254536646542</v>
       </c>
       <c r="E10">
-        <v>0.170727279867755</v>
+        <v>0.1223219066704928</v>
       </c>
       <c r="F10">
-        <v>3.236301478813544</v>
+        <v>1.942336504138396</v>
       </c>
       <c r="G10">
-        <v>2.460924048215162</v>
+        <v>1.578590589497992</v>
       </c>
       <c r="H10">
-        <v>1.980898190797575</v>
+        <v>0.9316072953860726</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2943086539463664</v>
+        <v>0.1728941906544819</v>
       </c>
       <c r="K10">
-        <v>3.784987709501877</v>
+        <v>7.722651034034641</v>
       </c>
       <c r="L10">
-        <v>0.143231342206839</v>
+        <v>0.07799806008865318</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4311535928612784</v>
+        <v>0.4171332907835392</v>
       </c>
       <c r="D11">
-        <v>0.08909964700485773</v>
+        <v>0.1042101891111145</v>
       </c>
       <c r="E11">
-        <v>0.1718107440200853</v>
+        <v>0.1289108422333882</v>
       </c>
       <c r="F11">
-        <v>3.232726717491431</v>
+        <v>2.022261851939007</v>
       </c>
       <c r="G11">
-        <v>2.457286840913497</v>
+        <v>1.648498881545692</v>
       </c>
       <c r="H11">
-        <v>1.973346765921491</v>
+        <v>0.9546882883089154</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2946149543851107</v>
+        <v>0.1802867591635007</v>
       </c>
       <c r="K11">
-        <v>3.937684983432291</v>
+        <v>8.302979176250972</v>
       </c>
       <c r="L11">
-        <v>0.1436990230309405</v>
+        <v>0.08135170105651213</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4328472017654974</v>
+        <v>0.4264399240063028</v>
       </c>
       <c r="D12">
-        <v>0.08981674443525378</v>
+        <v>0.106783517075371</v>
       </c>
       <c r="E12">
-        <v>0.1722304201524487</v>
+        <v>0.131441289491228</v>
       </c>
       <c r="F12">
-        <v>3.231684035136666</v>
+        <v>2.053821812023202</v>
       </c>
       <c r="G12">
-        <v>2.456183806598659</v>
+        <v>1.676231479171406</v>
       </c>
       <c r="H12">
-        <v>1.970660260118109</v>
+        <v>0.9640604938312833</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2947521234857007</v>
+        <v>0.1831644708128337</v>
       </c>
       <c r="K12">
-        <v>3.995647298733729</v>
+        <v>8.524459067531268</v>
       </c>
       <c r="L12">
-        <v>0.1438821113505071</v>
+        <v>0.08263904581635018</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4324811839327367</v>
+        <v>0.4244294195833618</v>
       </c>
       <c r="D13">
-        <v>0.08966224762863817</v>
+        <v>0.1062286250549533</v>
       </c>
       <c r="E13">
-        <v>0.1721396178909487</v>
+        <v>0.1308946684089989</v>
       </c>
       <c r="F13">
-        <v>3.231894742769754</v>
+        <v>2.046964800861659</v>
       </c>
       <c r="G13">
-        <v>2.456409140491871</v>
+        <v>1.670200277840024</v>
       </c>
       <c r="H13">
-        <v>1.971231141546212</v>
+        <v>0.9620127851415248</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2947216390922804</v>
+        <v>0.1825410728535957</v>
       </c>
       <c r="K13">
-        <v>3.983157900968706</v>
+        <v>8.476678174401115</v>
       </c>
       <c r="L13">
-        <v>0.1438424140364702</v>
+        <v>0.08236098732525221</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4312923553434587</v>
+        <v>0.4178962059093578</v>
       </c>
       <c r="D14">
-        <v>0.08915861727591334</v>
+        <v>0.1044215958709316</v>
       </c>
       <c r="E14">
-        <v>0.1718450828765512</v>
+        <v>0.1291182894731087</v>
       </c>
       <c r="F14">
-        <v>3.232634694978501</v>
+        <v>2.024831496515503</v>
       </c>
       <c r="G14">
-        <v>2.457190587363016</v>
+        <v>1.650754331043885</v>
       </c>
       <c r="H14">
-        <v>1.973122273961167</v>
+        <v>0.9554462760372076</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.29462581468092</v>
+        <v>0.1805218877416763</v>
       </c>
       <c r="K14">
-        <v>3.942450793705916</v>
+        <v>8.321164285581574</v>
       </c>
       <c r="L14">
-        <v>0.1437139659352837</v>
+        <v>0.08145725158458106</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4305678785328837</v>
+        <v>0.4139121399592511</v>
       </c>
       <c r="D15">
-        <v>0.08885029688624968</v>
+        <v>0.1033166839166171</v>
       </c>
       <c r="E15">
-        <v>0.1716658943793412</v>
+        <v>0.1280349424432998</v>
       </c>
       <c r="F15">
-        <v>3.233128477382195</v>
+        <v>2.011447250512219</v>
       </c>
       <c r="G15">
-        <v>2.457705013980103</v>
+        <v>1.639011722846249</v>
       </c>
       <c r="H15">
-        <v>1.974303200773079</v>
+        <v>0.9515084788434081</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2945698788044666</v>
+        <v>0.1792955499536504</v>
       </c>
       <c r="K15">
-        <v>3.917534613797102</v>
+        <v>8.226140366983088</v>
       </c>
       <c r="L15">
-        <v>0.1436360669149224</v>
+        <v>0.08090601179210211</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.426473121431826</v>
+        <v>0.3913396233619153</v>
       </c>
       <c r="D16">
-        <v>0.08708603978739404</v>
+        <v>0.09701278921458822</v>
       </c>
       <c r="E16">
-        <v>0.1706577878889881</v>
+        <v>0.1218960158607381</v>
       </c>
       <c r="F16">
-        <v>3.236578547316</v>
+        <v>1.937286116624648</v>
       </c>
       <c r="G16">
-        <v>2.461200047397938</v>
+        <v>1.574190071310198</v>
       </c>
       <c r="H16">
-        <v>1.981415880025793</v>
+        <v>0.9301835815825257</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.294291598266966</v>
+        <v>0.1724215345081817</v>
       </c>
       <c r="K16">
-        <v>3.775028106118555</v>
+        <v>7.684950847580012</v>
       </c>
       <c r="L16">
-        <v>0.1432016172242641</v>
+        <v>0.07778121906436297</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4240119021166038</v>
+        <v>0.3777093143644095</v>
       </c>
       <c r="D17">
-        <v>0.08600608185337677</v>
+        <v>0.09316847139560736</v>
       </c>
       <c r="E17">
-        <v>0.1700560891986349</v>
+        <v>0.1181883855183408</v>
       </c>
       <c r="F17">
-        <v>3.239247598830872</v>
+        <v>1.893937677797155</v>
       </c>
       <c r="G17">
-        <v>2.463831031530646</v>
+        <v>1.536510456733652</v>
       </c>
       <c r="H17">
-        <v>1.986086909542081</v>
+        <v>0.9181545128998891</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2941585663697595</v>
+        <v>0.1683344972124985</v>
       </c>
       <c r="K17">
-        <v>3.687853804836607</v>
+        <v>7.355718516028901</v>
       </c>
       <c r="L17">
-        <v>0.1429457842233006</v>
+        <v>0.07589317492008973</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4226149302358237</v>
+        <v>0.3699442181366521</v>
       </c>
       <c r="D18">
-        <v>0.08538579849417971</v>
+        <v>0.09096499207703346</v>
       </c>
       <c r="E18">
-        <v>0.1697161650008461</v>
+        <v>0.1160760159111192</v>
       </c>
       <c r="F18">
-        <v>3.240985409961937</v>
+        <v>1.869749068555521</v>
       </c>
       <c r="G18">
-        <v>2.46552273805554</v>
+        <v>1.515560169533757</v>
       </c>
       <c r="H18">
-        <v>1.988886435896546</v>
+        <v>0.9116021473452633</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2940958870211858</v>
+        <v>0.1660287942748724</v>
       </c>
       <c r="K18">
-        <v>3.637805188773712</v>
+        <v>7.167286246691333</v>
       </c>
       <c r="L18">
-        <v>0.1428025705376825</v>
+        <v>0.07481726107419462</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4221451433007246</v>
+        <v>0.3673274540207103</v>
       </c>
       <c r="D19">
-        <v>0.08517593365213116</v>
+        <v>0.09022018118059094</v>
       </c>
       <c r="E19">
-        <v>0.1696021303961821</v>
+        <v>0.1153641483987933</v>
       </c>
       <c r="F19">
-        <v>3.241608567841268</v>
+        <v>1.861682989280524</v>
       </c>
       <c r="G19">
-        <v>2.466126119888855</v>
+        <v>1.508586717162842</v>
       </c>
       <c r="H19">
-        <v>1.989853676587728</v>
+        <v>0.9094447001865831</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.294077040299932</v>
+        <v>0.1652556155629767</v>
       </c>
       <c r="K19">
-        <v>3.620875371812303</v>
+        <v>7.1036389768405</v>
       </c>
       <c r="L19">
-        <v>0.1427547572966716</v>
+        <v>0.07445464607704366</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4242719721270589</v>
+        <v>0.3791524413229865</v>
       </c>
       <c r="D20">
-        <v>0.08612095446765267</v>
+        <v>0.09357689533034375</v>
       </c>
       <c r="E20">
-        <v>0.1701195039276229</v>
+        <v>0.118580954067383</v>
       </c>
       <c r="F20">
-        <v>3.238942491653873</v>
+        <v>1.898474188014546</v>
       </c>
       <c r="G20">
-        <v>2.46353248037866</v>
+        <v>1.540445813555493</v>
       </c>
       <c r="H20">
-        <v>1.985577984479818</v>
+        <v>0.9193966545715568</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2941712954965467</v>
+        <v>0.1687648475543213</v>
       </c>
       <c r="K20">
-        <v>3.697124170430072</v>
+        <v>7.390667407252351</v>
       </c>
       <c r="L20">
-        <v>0.142972611015189</v>
+        <v>0.07609310860842555</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4316407688736774</v>
+        <v>0.4198114451980359</v>
       </c>
       <c r="D21">
-        <v>0.08930651083640839</v>
+        <v>0.1049519539802333</v>
       </c>
       <c r="E21">
-        <v>0.1719313401623808</v>
+        <v>0.1296390598648038</v>
       </c>
       <c r="F21">
-        <v>3.232408902183451</v>
+        <v>2.031296243000156</v>
       </c>
       <c r="G21">
-        <v>2.456953600700587</v>
+        <v>1.656430662201018</v>
       </c>
       <c r="H21">
-        <v>1.972562101367657</v>
+        <v>0.9573573057257363</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2946533855216558</v>
+        <v>0.181112772228964</v>
       </c>
       <c r="K21">
-        <v>3.954403687625359</v>
+        <v>8.366793435573697</v>
       </c>
       <c r="L21">
-        <v>0.1437515319197544</v>
+        <v>0.08172221260897317</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.436622963488702</v>
+        <v>0.4471632821873186</v>
       </c>
       <c r="D22">
-        <v>0.09139600075361898</v>
+        <v>0.1124712214650998</v>
       </c>
       <c r="E22">
-        <v>0.1731702167214806</v>
+        <v>0.137074577192795</v>
       </c>
       <c r="F22">
-        <v>3.2299521924933</v>
+        <v>2.125724841439308</v>
       </c>
       <c r="G22">
-        <v>2.454253464694744</v>
+        <v>1.739656295277513</v>
       </c>
       <c r="H22">
-        <v>1.965064430546562</v>
+        <v>0.98588676944604</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2950919290327647</v>
+        <v>0.1896440860504072</v>
       </c>
       <c r="K22">
-        <v>4.123361555589668</v>
+        <v>9.014936426485178</v>
       </c>
       <c r="L22">
-        <v>0.1442954932856182</v>
+        <v>0.08550357814971932</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4339486529541148</v>
+        <v>0.4324879122754623</v>
       </c>
       <c r="D23">
-        <v>0.0902801241395963</v>
+        <v>0.108449396629041</v>
       </c>
       <c r="E23">
-        <v>0.1725040007583907</v>
+        <v>0.1330855295558528</v>
       </c>
       <c r="F23">
-        <v>3.231097030100088</v>
+        <v>2.074577282007027</v>
       </c>
       <c r="G23">
-        <v>2.455547704015032</v>
+        <v>1.694506189001572</v>
       </c>
       <c r="H23">
-        <v>1.968973571615976</v>
+        <v>0.9702958300961768</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2948465601618864</v>
+        <v>0.1850454285565064</v>
       </c>
       <c r="K23">
-        <v>4.033111650316869</v>
+        <v>8.667980304430273</v>
       </c>
       <c r="L23">
-        <v>0.1440019852696253</v>
+        <v>0.08347534278816937</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.424154338361717</v>
+        <v>0.3784997832146928</v>
       </c>
       <c r="D24">
-        <v>0.08606901869100625</v>
+        <v>0.09339222627002641</v>
       </c>
       <c r="E24">
-        <v>0.1700908154377636</v>
+        <v>0.1184034143399302</v>
       </c>
       <c r="F24">
-        <v>3.239079797321224</v>
+        <v>1.896420959197798</v>
       </c>
       <c r="G24">
-        <v>2.463666897529663</v>
+        <v>1.538664430840868</v>
       </c>
       <c r="H24">
-        <v>1.985807714156465</v>
+        <v>0.9188339555466598</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2941654976685939</v>
+        <v>0.1685701497844434</v>
       </c>
       <c r="K24">
-        <v>3.692932822995147</v>
+        <v>7.374864392757218</v>
       </c>
       <c r="L24">
-        <v>0.1429604705723335</v>
+        <v>0.07600268898668361</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4143027519042448</v>
+        <v>0.3230702396076595</v>
       </c>
       <c r="D25">
-        <v>0.08156046636364067</v>
+        <v>0.07743658087737515</v>
       </c>
       <c r="E25">
-        <v>0.1677232454164503</v>
+        <v>0.1033243717993315</v>
       </c>
       <c r="F25">
-        <v>3.255432702950287</v>
+        <v>1.732268622213624</v>
       </c>
       <c r="G25">
-        <v>2.479240356657954</v>
+        <v>1.397733164464114</v>
       </c>
       <c r="H25">
-        <v>2.008279217264629</v>
+        <v>0.877133595651685</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2939597289602034</v>
+        <v>0.1524949826617359</v>
       </c>
       <c r="K25">
-        <v>3.32950499940506</v>
+        <v>6.014890255595276</v>
       </c>
       <c r="L25">
-        <v>0.1419875444682361</v>
+        <v>0.06832026325899321</v>
       </c>
       <c r="M25">
         <v>0</v>
